--- a/story.xlsx
+++ b/story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\pythonprojects\mafia_bigbrother\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58C262E-C4A5-49BF-B8FD-46FAC8148A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF20EAD-8CD8-48AB-AC07-568DC2193190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3750" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>Автор</t>
   </si>
@@ -231,19 +231,98 @@
   </si>
   <si>
     <t>вишенка на торте должна быть одна, тебя слишком много )</t>
+  </si>
+  <si>
+    <t>Да покарает тебя стоматолог!</t>
+  </si>
+  <si>
+    <t>Тебе что шапка на голове мозоль натёрла?</t>
+  </si>
+  <si>
+    <t>Дурак дураком и уши холодные.</t>
+  </si>
+  <si>
+    <t>Чтоб тебя вантузом обсосало.</t>
+  </si>
+  <si>
+    <t>Рот свой у стоматолога открывать будешь!</t>
+  </si>
+  <si>
+    <t>Паразит нехороший!</t>
+  </si>
+  <si>
+    <t>Пельмень контуженный.</t>
+  </si>
+  <si>
+    <t>Для такого мнения у вас зубов должно быть в два раза больше.</t>
+  </si>
+  <si>
+    <t>На кого шуршишь, пакетик?</t>
+  </si>
+  <si>
+    <t>У тя айкью как у хлебушка.</t>
+  </si>
+  <si>
+    <t>Верблюд плюгавый.</t>
+  </si>
+  <si>
+    <t>Мацепурик с дюшесом.</t>
+  </si>
+  <si>
+    <t>И где же тот добрый волшебник, который вам смелость дал?</t>
+  </si>
+  <si>
+    <t>Шлепок майонезный.</t>
+  </si>
+  <si>
+    <t>Эй ты, организм!</t>
+  </si>
+  <si>
+    <t>Ты на кого кефиром дышишь!?</t>
+  </si>
+  <si>
+    <t>Я тебе сику на пику натяну и крякать заставлю.</t>
+  </si>
+  <si>
+    <t>Дичь покорябанная.</t>
+  </si>
+  <si>
+    <t>Ты что, потеряла список кого бояться надо? Тебе напомнить?</t>
+  </si>
+  <si>
+    <t>Моль в обмороке.</t>
+  </si>
+  <si>
+    <t>Презерватив в очках.</t>
+  </si>
+  <si>
+    <t>Кумир, добей меня танцем.</t>
+  </si>
+  <si>
+    <t>Унитаз на лыжах.</t>
+  </si>
+  <si>
+    <t>А на спинку вам не пописеть, чтоб морем пахло.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -266,8 +345,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1183,200 @@
         <v>69</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>